--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from fr-document-type" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/ValueSet/fr-medication-reconciliation-document-type</t>
+    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-reconciliation-document-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-06-23T09:15:00Z</t>
+    <t>2024-12-26T13:24:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/CodeSystem/fr-document-type</t>
+    <t>https://hl7.fr/fhir/fr/medication/CodeSystem/fr-document-type</t>
   </si>
 </sst>
 </file>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>value set InterOp'Santé - type de document de la ressource Composition d'une FCT</t>
+    <t>value set Interop'Santé - type de document de la ressource Composition d'une FCT</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-reconciliation-document-type</t>
+    <t>https://hl7.fr/ig/fhir/medication/ValueSet/fr-medication-reconciliation-document-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/CodeSystem/fr-document-type</t>
+    <t>https://hl7.fr/ig/fhir/medication/CodeSystem/fr-document-type</t>
   </si>
 </sst>
 </file>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FrMedicationReconciliationDocumentType</t>
+    <t>FRMedicationReconciliationDocumentType</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:49:33+00:00</t>
+    <t>2025-07-22T19:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,37 +78,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Le jeu de valeurs à utiliser pour coder le type de document de la ressource *Composition* d'une FCT (Fiche de Conciliation des Traitements médicamenteux).</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[false]</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>isMedicationReconciliation</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Le jeu de valeurs à utiliser pour coder le type de document de la ressource *Composition* d'une FCT (Fiche de Conciliation des Traitements médicamenteux).</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[false]</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>isMedicationReconciliation</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>System URI</t>
@@ -415,18 +418,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
+++ b/main/ig/ValueSet-fr-medication-reconciliation-document-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
